--- a/HW/BOM.xlsx
+++ b/HW/BOM.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="39">
   <si>
     <t>ButtonLeft</t>
   </si>
@@ -27,21 +27,9 @@
     <t>DKm</t>
   </si>
   <si>
-    <t>Dmax</t>
-  </si>
-  <si>
     <t>DMil</t>
   </si>
   <si>
-    <t>D_Avg</t>
-  </si>
-  <si>
-    <t>D_dist</t>
-  </si>
-  <si>
-    <t>D_Time</t>
-  </si>
-  <si>
     <t>Jsensor</t>
   </si>
   <si>
@@ -60,24 +48,9 @@
     <t>RKm</t>
   </si>
   <si>
-    <t>Rmax</t>
-  </si>
-  <si>
     <t>RMil</t>
   </si>
   <si>
-    <t>R_Avg</t>
-  </si>
-  <si>
-    <t>R_dist</t>
-  </si>
-  <si>
-    <t>R_reset</t>
-  </si>
-  <si>
-    <t>R_Time</t>
-  </si>
-  <si>
     <t>SEG1DOWN</t>
   </si>
   <si>
@@ -124,6 +97,42 @@
   </si>
   <si>
     <t>7Segment connector 6 pins</t>
+  </si>
+  <si>
+    <t>DAvg</t>
+  </si>
+  <si>
+    <t>DDist</t>
+  </si>
+  <si>
+    <t>DTime</t>
+  </si>
+  <si>
+    <t>DMax</t>
+  </si>
+  <si>
+    <t>RMax</t>
+  </si>
+  <si>
+    <t>RAvg</t>
+  </si>
+  <si>
+    <t>RDist</t>
+  </si>
+  <si>
+    <t>RTime</t>
+  </si>
+  <si>
+    <t>RReset</t>
+  </si>
+  <si>
+    <t>7Segment up</t>
+  </si>
+  <si>
+    <t>7Segment down</t>
+  </si>
+  <si>
+    <t>4*1 7 segment</t>
   </si>
 </sst>
 </file>
@@ -139,7 +148,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -158,8 +167,20 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="5">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -227,16 +248,34 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thick">
+        <color auto="1"/>
+      </left>
+      <right style="thick">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -531,10 +570,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B26"/>
+  <dimension ref="A1:B28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -545,205 +584,221 @@
   <sheetData>
     <row r="1" spans="1:2" ht="15.75" thickTop="1" thickBot="1">
       <c r="A1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="15" thickTop="1">
+      <c r="A2" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="A15" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
+      <c r="A16" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="B19" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="B1" s="1" t="s">
+    </row>
+    <row r="20" spans="1:2">
+      <c r="A20" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2">
+      <c r="A21" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B21" s="2" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="15" thickTop="1">
-      <c r="A2" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2">
-      <c r="A3" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2">
-      <c r="A4" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
-      <c r="A5" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2">
-      <c r="A6" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2">
-      <c r="A7" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2">
-      <c r="A8" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2">
-      <c r="A9" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2">
-      <c r="A10" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2">
-      <c r="A11" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2">
-      <c r="A12" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2">
-      <c r="A13" s="3" t="s">
+    <row r="22" spans="1:2">
+      <c r="A22" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="B13" s="3" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2">
-      <c r="A14" s="3" t="s">
+      <c r="B22" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2">
+      <c r="A23" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="B14" s="3" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2">
-      <c r="A15" s="3" t="s">
+      <c r="B23" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2">
+      <c r="A24" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="B15" s="3" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2">
-      <c r="A16" s="3" t="s">
+      <c r="B24" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2">
+      <c r="A25" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="B25" s="7" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2">
+      <c r="A26" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="B26" s="7" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" ht="15" thickBot="1">
+      <c r="A27" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="B27" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="B16" s="3" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2">
-      <c r="A17" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="B17" s="3" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2">
-      <c r="A18" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="B18" s="3" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2">
-      <c r="A19" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="B19" s="3" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2">
-      <c r="A20" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="B20" s="3" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2">
-      <c r="A21" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="B21" s="3" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2">
-      <c r="A22" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="B22" s="3" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2">
-      <c r="A23" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="B23" s="3" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2">
-      <c r="A24" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="B24" s="3" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" ht="15" thickBot="1">
-      <c r="A25" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="B25" s="4" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" ht="15" thickTop="1"/>
+    </row>
+    <row r="28" spans="1:2" ht="15" thickTop="1"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
